--- a/data/trans_orig/P64B-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P64B-Estudios-trans_orig.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2007" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2012" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2016" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -743,19 +744,19 @@
         <v>26153</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18226</v>
+        <v>17100</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>37111</v>
+        <v>37097</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07192442557392723</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05012427337124745</v>
+        <v>0.04702808080203286</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1020597009740455</v>
+        <v>0.1020198646837603</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -764,19 +765,19 @@
         <v>9306</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4460</v>
+        <v>3860</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17340</v>
+        <v>17582</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06212968905142983</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02977743741505406</v>
+        <v>0.02576985618471206</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1157605450150287</v>
+        <v>0.1173768663704894</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>34</v>
@@ -785,19 +786,19 @@
         <v>35460</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25137</v>
+        <v>25357</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>48700</v>
+        <v>49703</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06906676175766102</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04896058618451247</v>
+        <v>0.04939005255522908</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09485596477508676</v>
+        <v>0.09680951348862527</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +815,19 @@
         <v>63498</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>48899</v>
+        <v>50125</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>79948</v>
+        <v>80351</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1746255089771688</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1344780471562573</v>
+        <v>0.1378486162888681</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2198656939188815</v>
+        <v>0.2209734715261286</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>17</v>
@@ -835,19 +836,19 @@
         <v>17903</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11017</v>
+        <v>11359</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>27951</v>
+        <v>27511</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1195194928560413</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07354641082166628</v>
+        <v>0.07582910988755802</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1866003321328282</v>
+        <v>0.1836657339264904</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>76</v>
@@ -856,19 +857,19 @@
         <v>81400</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>63894</v>
+        <v>64329</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>99318</v>
+        <v>98223</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1585480506436825</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1244506585781516</v>
+        <v>0.1252966824239861</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1934469239393819</v>
+        <v>0.1913150099416411</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +886,19 @@
         <v>6887</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2908</v>
+        <v>2933</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13063</v>
+        <v>13667</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01893901740678925</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.007997398553756642</v>
+        <v>0.008065922531220317</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03592572616858601</v>
+        <v>0.03758671658097198</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -909,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>8689</v>
+        <v>7806</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01685454950191681</v>
@@ -918,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05800735864523877</v>
+        <v>0.05211487888538766</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>9</v>
@@ -927,19 +928,19 @@
         <v>9411</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>4114</v>
+        <v>4838</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>16585</v>
+        <v>17579</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01833086337485176</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.008012100893020126</v>
+        <v>0.009422818625172922</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03230315283918466</v>
+        <v>0.03423977772817035</v>
       </c>
     </row>
     <row r="7">
@@ -959,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7009</v>
+        <v>7854</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005508645346937345</v>
@@ -968,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01927535746404644</v>
+        <v>0.0215988386665836</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -977,19 +978,19 @@
         <v>10077</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4403</v>
+        <v>5057</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17619</v>
+        <v>18457</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06727329278535393</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02939729061141463</v>
+        <v>0.0337618506339704</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1176234321782043</v>
+        <v>0.1232198250064679</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>11</v>
@@ -998,19 +999,19 @@
         <v>12080</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6214</v>
+        <v>6180</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>21541</v>
+        <v>20529</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02352879297457351</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01210388648581258</v>
+        <v>0.01203701009430754</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04195558944039506</v>
+        <v>0.03998535646554922</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1028,19 @@
         <v>110005</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>93649</v>
+        <v>92546</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>128135</v>
+        <v>128427</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.302525019195248</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2575441165101571</v>
+        <v>0.2545111310762208</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3523854543394262</v>
+        <v>0.3531894645041232</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>54</v>
@@ -1048,19 +1049,19 @@
         <v>56532</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>45353</v>
+        <v>45071</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>69610</v>
+        <v>68949</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3774033399388742</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.30277584091702</v>
+        <v>0.3008892865625033</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4647126906606919</v>
+        <v>0.4602982057100196</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>158</v>
@@ -1069,19 +1070,19 @@
         <v>166536</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>144596</v>
+        <v>145824</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>187911</v>
+        <v>188280</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3243711471967879</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2816374211719213</v>
+        <v>0.2840292385822181</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.366003365025927</v>
+        <v>0.3667239685407508</v>
       </c>
     </row>
     <row r="9">
@@ -1098,19 +1099,19 @@
         <v>155077</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>135700</v>
+        <v>136457</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>172960</v>
+        <v>174640</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4264773834999294</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3731883701343183</v>
+        <v>0.3752718303237441</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.47566007865969</v>
+        <v>0.4802803361188309</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>52</v>
@@ -1119,19 +1120,19 @@
         <v>53448</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>41314</v>
+        <v>41792</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>66168</v>
+        <v>66489</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3568196358663839</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2758132224853852</v>
+        <v>0.2789995886187068</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.44173877379001</v>
+        <v>0.4438814013940378</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>202</v>
@@ -1140,19 +1141,19 @@
         <v>208525</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>184569</v>
+        <v>187605</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>230173</v>
+        <v>230760</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.4061543840524433</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3594941434315294</v>
+        <v>0.3654086088546386</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4483208908708353</v>
+        <v>0.4494642278299421</v>
       </c>
     </row>
     <row r="10">
@@ -1244,19 +1245,19 @@
         <v>60015</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>46969</v>
+        <v>47121</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>77776</v>
+        <v>75936</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05414972656876087</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04237900477209468</v>
+        <v>0.042516139198716</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0701751794062237</v>
+        <v>0.068515099794034</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>27</v>
@@ -1265,19 +1266,19 @@
         <v>31615</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>21856</v>
+        <v>22255</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>45771</v>
+        <v>47274</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05572485994100022</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03852245887558473</v>
+        <v>0.03922569860374715</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08067512742504666</v>
+        <v>0.08332409426865878</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>84</v>
@@ -1286,19 +1287,19 @@
         <v>91630</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>72428</v>
+        <v>74128</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>111611</v>
+        <v>112574</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.05468303490912334</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04322368551864796</v>
+        <v>0.04423830555191557</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.06660704296655266</v>
+        <v>0.06718168061775041</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1316,19 @@
         <v>228989</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>203143</v>
+        <v>203071</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>259454</v>
+        <v>259273</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2066097351547047</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.183290118476749</v>
+        <v>0.1832245465924389</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2340974411691653</v>
+        <v>0.2339341043090233</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>117</v>
@@ -1336,19 +1337,19 @@
         <v>122441</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>104290</v>
+        <v>103025</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>143213</v>
+        <v>142320</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2158134007102919</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1838211828490404</v>
+        <v>0.181592285327253</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2524269104888874</v>
+        <v>0.2508529568865135</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>333</v>
@@ -1357,19 +1358,19 @@
         <v>351430</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>317616</v>
+        <v>318051</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>385673</v>
+        <v>386289</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2097259103873602</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1895469068806125</v>
+        <v>0.1898063093182322</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2301618597348769</v>
+        <v>0.2305295514387493</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1387,19 @@
         <v>29183</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>19839</v>
+        <v>19340</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>42488</v>
+        <v>41119</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0263312886577286</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01790000845200956</v>
+        <v>0.01744968709655938</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03833553806247626</v>
+        <v>0.03710016877118091</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -1407,19 +1408,19 @@
         <v>4880</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1778</v>
+        <v>1847</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11133</v>
+        <v>11363</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.008601235103436952</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003133031303034304</v>
+        <v>0.003254950815335441</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01962241554659231</v>
+        <v>0.02002918985237198</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>31</v>
@@ -1428,19 +1429,19 @@
         <v>34063</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>23372</v>
+        <v>22624</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>47919</v>
+        <v>46662</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02032825069140443</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01394791766973357</v>
+        <v>0.01350130877514865</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02859729042903334</v>
+        <v>0.0278466657804135</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1458,19 @@
         <v>25200</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>16852</v>
+        <v>15403</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>37063</v>
+        <v>36877</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02273707875924654</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01520463745103209</v>
+        <v>0.01389767628679404</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03344085860093503</v>
+        <v>0.03327304969452274</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>32</v>
@@ -1478,19 +1479,19 @@
         <v>33811</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>24448</v>
+        <v>23583</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>47703</v>
+        <v>47847</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05959478560719381</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04309187930449657</v>
+        <v>0.04156782374745435</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0840809965517937</v>
+        <v>0.08433515195952357</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>56</v>
@@ -1499,19 +1500,19 @@
         <v>59011</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>45444</v>
+        <v>45457</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>76404</v>
+        <v>76394</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03521635373054616</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02711998104241011</v>
+        <v>0.02712764070367757</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04559616583912439</v>
+        <v>0.04559030832236469</v>
       </c>
     </row>
     <row r="15">
@@ -1528,19 +1529,19 @@
         <v>236627</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>210071</v>
+        <v>210637</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>269017</v>
+        <v>266919</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2135013104199544</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1895404143136179</v>
+        <v>0.1900512970285941</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2427258118882814</v>
+        <v>0.2408325049146183</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>162</v>
@@ -1549,19 +1550,19 @@
         <v>168034</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>144848</v>
+        <v>145872</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>188203</v>
+        <v>189794</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2961755173109368</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2553089953235932</v>
+        <v>0.2571139400651398</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.331725748520275</v>
+        <v>0.3345295887867739</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>392</v>
@@ -1570,19 +1571,19 @@
         <v>404661</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>368815</v>
+        <v>369868</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>442097</v>
+        <v>440188</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2414931267606431</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2201014870725896</v>
+        <v>0.2207296579399741</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2638345143004977</v>
+        <v>0.2626951157103717</v>
       </c>
     </row>
     <row r="16">
@@ -1599,19 +1600,19 @@
         <v>528302</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>495459</v>
+        <v>494370</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>562516</v>
+        <v>563295</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4766708604396048</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4470378964770134</v>
+        <v>0.4460547348929359</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5075413787443779</v>
+        <v>0.5082440185170468</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>200</v>
@@ -1620,19 +1621,19 @@
         <v>206565</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>183457</v>
+        <v>186343</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>230096</v>
+        <v>230489</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3640902013271403</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3233603779687448</v>
+        <v>0.3284472341044782</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4055667785761229</v>
+        <v>0.4062585959823115</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>709</v>
@@ -1641,19 +1642,19 @@
         <v>734867</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>696503</v>
+        <v>696025</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>777524</v>
+        <v>778012</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4385533235209227</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4156587389708575</v>
+        <v>0.4153736048978249</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4640100992341972</v>
+        <v>0.4643018011689004</v>
       </c>
     </row>
     <row r="17">
@@ -1745,19 +1746,19 @@
         <v>28381</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>18538</v>
+        <v>18528</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>40826</v>
+        <v>41668</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.07109136150819778</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04643651120377312</v>
+        <v>0.04641160197838332</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1022661729251315</v>
+        <v>0.104375889849406</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>8</v>
@@ -1766,19 +1767,19 @@
         <v>8470</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>4042</v>
+        <v>4124</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>16397</v>
+        <v>15256</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02943208190870796</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01404655250260354</v>
+        <v>0.01433049284253487</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05697669946301945</v>
+        <v>0.05300960624482282</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>33</v>
@@ -1787,19 +1788,19 @@
         <v>36851</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>26088</v>
+        <v>25748</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>50042</v>
+        <v>50753</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.05364009863484898</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03797415138191763</v>
+        <v>0.03747853271643255</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.07284021387133621</v>
+        <v>0.07387522881434883</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1817,19 @@
         <v>44026</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>33085</v>
+        <v>31006</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>58893</v>
+        <v>59164</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1102825496521148</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08287615678703647</v>
+        <v>0.07766770056413137</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.147520862248293</v>
+        <v>0.1482010057126369</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>51</v>
@@ -1837,19 +1838,19 @@
         <v>55002</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>42672</v>
+        <v>42472</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>69775</v>
+        <v>68558</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1911182386058247</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1482766824734769</v>
+        <v>0.1475787931098843</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2424529646422924</v>
+        <v>0.2382215968235511</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>94</v>
@@ -1858,19 +1859,19 @@
         <v>99028</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>80129</v>
+        <v>81509</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>119724</v>
+        <v>120535</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1441449896904856</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1166353620378552</v>
+        <v>0.1186439783982881</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1742695192984808</v>
+        <v>0.1754497430473431</v>
       </c>
     </row>
     <row r="20">
@@ -1890,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7317</v>
+        <v>7467</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.003672843424121671</v>
@@ -1899,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01832833534143042</v>
+        <v>0.01870341230874029</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -1908,19 +1909,19 @@
         <v>5101</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1651</v>
+        <v>1644</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>13542</v>
+        <v>12955</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01772548860860067</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.005737708692649062</v>
+        <v>0.005713130876126796</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04705605662861247</v>
+        <v>0.04501656906602081</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5</v>
@@ -1929,19 +1930,19 @@
         <v>6567</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2455</v>
+        <v>2452</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>14453</v>
+        <v>14637</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.009559560802288848</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.003573072360442458</v>
+        <v>0.003569208622390289</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02103835726765563</v>
+        <v>0.02130509637653303</v>
       </c>
     </row>
     <row r="21">
@@ -1958,19 +1959,19 @@
         <v>9261</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4687</v>
+        <v>4499</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>17269</v>
+        <v>16593</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.0231985133004621</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01173995349567643</v>
+        <v>0.0112695763469438</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04325765247392611</v>
+        <v>0.04156468751100658</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>15</v>
@@ -1979,19 +1980,19 @@
         <v>14791</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>8849</v>
+        <v>8519</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>23709</v>
+        <v>23337</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.05139699144099422</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03074702467066519</v>
+        <v>0.02960051354260454</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.08238451270359431</v>
+        <v>0.08108896412988441</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>24</v>
@@ -2000,19 +2001,19 @@
         <v>24053</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>16288</v>
+        <v>16147</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>34536</v>
+        <v>35525</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03501098484077247</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0237090060136519</v>
+        <v>0.02350293223577665</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05027038532638838</v>
+        <v>0.05170938587572883</v>
       </c>
     </row>
     <row r="22">
@@ -2029,19 +2030,19 @@
         <v>162890</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>142241</v>
+        <v>143956</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>185263</v>
+        <v>182784</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4080262940106512</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3563005367332628</v>
+        <v>0.360598684173065</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4640689022331477</v>
+        <v>0.4578587207163619</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>127</v>
@@ -2050,19 +2051,19 @@
         <v>130616</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>112147</v>
+        <v>114607</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>147933</v>
+        <v>147479</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4538608370387415</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3896858860557815</v>
+        <v>0.3982344456771171</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5140336644803055</v>
+        <v>0.5124542872913959</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>286</v>
@@ -2071,19 +2072,19 @@
         <v>293506</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>265496</v>
+        <v>266850</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>321103</v>
+        <v>317992</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4272265938418757</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3864553403955557</v>
+        <v>0.3884262085101011</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4673959872627423</v>
+        <v>0.462868439437117</v>
       </c>
     </row>
     <row r="23">
@@ -2100,19 +2101,19 @@
         <v>153190</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>133936</v>
+        <v>133146</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>172463</v>
+        <v>173009</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3837284381044525</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3354991695383682</v>
+        <v>0.3335195753653066</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4320041518938394</v>
+        <v>0.4333720822360163</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>71</v>
@@ -2121,19 +2122,19 @@
         <v>73808</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>58746</v>
+        <v>60539</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>87933</v>
+        <v>88240</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.256466362397131</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2041303959581873</v>
+        <v>0.2103590197568298</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3055465573538959</v>
+        <v>0.3066138426425113</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>217</v>
@@ -2142,19 +2143,19 @@
         <v>226998</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>202523</v>
+        <v>202795</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>254883</v>
+        <v>252845</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3304177721897284</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2947921283945051</v>
+        <v>0.2951882132884823</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3710059691081959</v>
+        <v>0.3680407059794323</v>
       </c>
     </row>
     <row r="24">
@@ -2246,19 +2247,19 @@
         <v>114549</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>93817</v>
+        <v>93345</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>136181</v>
+        <v>136681</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.06121842886589191</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05013840456558705</v>
+        <v>0.04988612240741169</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07277904462032285</v>
+        <v>0.0730466707574902</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>44</v>
@@ -2267,19 +2268,19 @@
         <v>49392</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>36710</v>
+        <v>36287</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>65443</v>
+        <v>66163</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04914984619991529</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03653026793744814</v>
+        <v>0.03610948117234909</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06512266723136975</v>
+        <v>0.06583894896210669</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>151</v>
@@ -2288,19 +2289,19 @@
         <v>163941</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>139195</v>
+        <v>140039</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>192147</v>
+        <v>191205</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05700156823700191</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0483975089857993</v>
+        <v>0.0486908432690852</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06680856473366077</v>
+        <v>0.06648122430948401</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2318,19 @@
         <v>336513</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>302302</v>
+        <v>302342</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>372334</v>
+        <v>373726</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1798425893957431</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1615590390847032</v>
+        <v>0.1615808052205022</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1989864530192517</v>
+        <v>0.1997303640046669</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>185</v>
@@ -2338,19 +2339,19 @@
         <v>195345</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>170394</v>
+        <v>168958</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>223099</v>
+        <v>222050</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1943879884724835</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1695592106190339</v>
+        <v>0.1681297427992766</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2220058496955299</v>
+        <v>0.2209617496300768</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>503</v>
@@ -2359,19 +2360,19 @@
         <v>531858</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>489669</v>
+        <v>489814</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>577278</v>
+        <v>578399</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1849248697592124</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1702558608745509</v>
+        <v>0.1703062619658247</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2007171026679465</v>
+        <v>0.201106955072405</v>
       </c>
     </row>
     <row r="27">
@@ -2388,19 +2389,19 @@
         <v>37536</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>27187</v>
+        <v>26794</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>52974</v>
+        <v>51823</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.02006051145867781</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01452951981599477</v>
+        <v>0.01431961476466317</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.02831088215335893</v>
+        <v>0.02769560989866232</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>11</v>
@@ -2409,19 +2410,19 @@
         <v>12506</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>6610</v>
+        <v>6506</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>21560</v>
+        <v>22334</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.01244443913156162</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.006577263660443377</v>
+        <v>0.006474412692482752</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.021454497241295</v>
+        <v>0.02222474985579265</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>45</v>
@@ -2430,19 +2431,19 @@
         <v>50042</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>36911</v>
+        <v>36390</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>68281</v>
+        <v>66459</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.01739939404067851</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.01283369177786684</v>
+        <v>0.01265279310514031</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.02374087252344275</v>
+        <v>0.02310745528462825</v>
       </c>
     </row>
     <row r="28">
@@ -2459,19 +2460,19 @@
         <v>36464</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>25664</v>
+        <v>26041</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>50727</v>
+        <v>49722</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01948751988223226</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01371573714433964</v>
+        <v>0.01391723562792246</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02711007527784537</v>
+        <v>0.02657305694842637</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>56</v>
@@ -2480,19 +2481,19 @@
         <v>58679</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>45112</v>
+        <v>43319</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>75230</v>
+        <v>75100</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05839164268852309</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04489079658621759</v>
+        <v>0.04310643083405084</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07486172087716403</v>
+        <v>0.07473160136314097</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>91</v>
@@ -2501,19 +2502,19 @@
         <v>95143</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>77238</v>
+        <v>76640</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>116506</v>
+        <v>117980</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0330809358038751</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.02685550309307551</v>
+        <v>0.02664735011085499</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04050856681659307</v>
+        <v>0.04102122616578814</v>
       </c>
     </row>
     <row r="29">
@@ -2530,19 +2531,19 @@
         <v>509522</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>471526</v>
+        <v>472622</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>551550</v>
+        <v>548752</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2723036978339844</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2519974899508526</v>
+        <v>0.2525835283705139</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2947647618158264</v>
+        <v>0.2932696481098043</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>343</v>
@@ -2551,19 +2552,19 @@
         <v>355181</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>326095</v>
+        <v>324672</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>385977</v>
+        <v>386013</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.353440799358502</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3244972815764359</v>
+        <v>0.3230808316765043</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3840850313766189</v>
+        <v>0.3841210458834082</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>836</v>
@@ -2572,19 +2573,19 @@
         <v>864703</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>817254</v>
+        <v>815511</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>912576</v>
+        <v>919447</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3006536589214243</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2841558029647006</v>
+        <v>0.283549663235821</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.317298992157021</v>
+        <v>0.3196879812166658</v>
       </c>
     </row>
     <row r="30">
@@ -2601,19 +2602,19 @@
         <v>836568</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>788507</v>
+        <v>789538</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>877213</v>
+        <v>883795</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4470872525634705</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4214018687814864</v>
+        <v>0.4219528294518595</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4688092163569338</v>
+        <v>0.4723264666885171</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>323</v>
@@ -2622,19 +2623,19 @@
         <v>333821</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>304954</v>
+        <v>303884</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>365401</v>
+        <v>366659</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3321852841490145</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3034595157043549</v>
+        <v>0.3023949976914688</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3636102762019648</v>
+        <v>0.3648616562821924</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1128</v>
@@ -2643,19 +2644,19 @@
         <v>1170390</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1115907</v>
+        <v>1117974</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1223254</v>
+        <v>1226703</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.4069395732378078</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.387996363317937</v>
+        <v>0.3887150761258187</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4253201524954968</v>
+        <v>0.4265194258004217</v>
       </c>
     </row>
     <row r="31">
@@ -2986,19 +2987,19 @@
         <v>13909</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7914</v>
+        <v>6808</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22588</v>
+        <v>22938</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07861772904031968</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04473019201886633</v>
+        <v>0.03848291487423641</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1276743641248147</v>
+        <v>0.1296502706157543</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -3007,19 +3008,19 @@
         <v>19239</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11665</v>
+        <v>11671</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28109</v>
+        <v>28753</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1412974037264234</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08566909526814577</v>
+        <v>0.08571062722679892</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2064407535436764</v>
+        <v>0.2111698616290739</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>30</v>
@@ -3028,19 +3029,19 @@
         <v>33148</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>22998</v>
+        <v>22845</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>45846</v>
+        <v>46453</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1058776079840359</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07345608304458938</v>
+        <v>0.07296859071989933</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1464347736387974</v>
+        <v>0.1483720173951404</v>
       </c>
     </row>
     <row r="5">
@@ -3057,19 +3058,19 @@
         <v>24913</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>17099</v>
+        <v>16249</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>36096</v>
+        <v>34901</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1408149364767095</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09664996341284009</v>
+        <v>0.09184528790666215</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2040221673827838</v>
+        <v>0.1972692996887116</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>14</v>
@@ -3078,19 +3079,19 @@
         <v>15810</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9389</v>
+        <v>8838</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>26426</v>
+        <v>24965</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1161101728082171</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.06895561394621252</v>
+        <v>0.06490932356792223</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1940743343335266</v>
+        <v>0.1833497481881751</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>38</v>
@@ -3099,19 +3100,19 @@
         <v>40723</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>29155</v>
+        <v>29841</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>54414</v>
+        <v>55129</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1300706422488148</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09312302423033539</v>
+        <v>0.09531458963274375</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.173801827748703</v>
+        <v>0.176084122824522</v>
       </c>
     </row>
     <row r="6">
@@ -3128,19 +3129,19 @@
         <v>8176</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3820</v>
+        <v>3854</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15522</v>
+        <v>15612</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04621175903478641</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02158923311234738</v>
+        <v>0.02178395033402875</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08773714680393359</v>
+        <v>0.08824547894840308</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -3162,19 +3163,19 @@
         <v>8176</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>3917</v>
+        <v>3863</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>16462</v>
+        <v>15026</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02611390493179202</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01251265229620481</v>
+        <v>0.01233724672449059</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05258175132976587</v>
+        <v>0.0479924220443815</v>
       </c>
     </row>
     <row r="7">
@@ -3194,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6121</v>
+        <v>5562</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.00639550673185075</v>
@@ -3203,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0345961422143656</v>
+        <v>0.03143995502493099</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -3212,19 +3213,19 @@
         <v>9168</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4189</v>
+        <v>4157</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17455</v>
+        <v>16305</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06733225121631749</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03076361641531001</v>
+        <v>0.03053019071107721</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1281950654833793</v>
+        <v>0.1197452673756548</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>10</v>
@@ -3233,19 +3234,19 @@
         <v>10300</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>5063</v>
+        <v>5221</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>17805</v>
+        <v>18596</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0328973717493316</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01617157519971459</v>
+        <v>0.0166766799164476</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05686943896899087</v>
+        <v>0.05939725965118048</v>
       </c>
     </row>
     <row r="8">
@@ -3262,19 +3263,19 @@
         <v>54950</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>43339</v>
+        <v>43645</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>68266</v>
+        <v>68579</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3105933542325992</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2449655347341357</v>
+        <v>0.2466921530398068</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3858597112846016</v>
+        <v>0.3876285654032971</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>40</v>
@@ -3283,19 +3284,19 @@
         <v>44024</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>33498</v>
+        <v>33581</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>56396</v>
+        <v>55928</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3233187100913659</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2460191428418548</v>
+        <v>0.2466217859709374</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4141826817692357</v>
+        <v>0.410745682048766</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>93</v>
@@ -3304,19 +3305,19 @@
         <v>98974</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>82768</v>
+        <v>80510</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>118485</v>
+        <v>115726</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3161277106561592</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2643653820428274</v>
+        <v>0.2571530890695248</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3784465892927759</v>
+        <v>0.369633989104483</v>
       </c>
     </row>
     <row r="9">
@@ -3333,19 +3334,19 @@
         <v>73841</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>59858</v>
+        <v>59617</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>86527</v>
+        <v>87875</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4173667144837345</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.338331584074212</v>
+        <v>0.3369727588492585</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4890736496288863</v>
+        <v>0.4966944305660167</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>45</v>
@@ -3354,19 +3355,19 @@
         <v>47921</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>37810</v>
+        <v>37614</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>60614</v>
+        <v>60205</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3519414621576762</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2776803083696633</v>
+        <v>0.276243089525337</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.445160551734305</v>
+        <v>0.4421537726991723</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>117</v>
@@ -3375,19 +3376,19 @@
         <v>121762</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>103253</v>
+        <v>103704</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>138735</v>
+        <v>138999</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3889127624298665</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3297944850173934</v>
+        <v>0.3312353863637723</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4431270510653458</v>
+        <v>0.4439687031828086</v>
       </c>
     </row>
     <row r="10">
@@ -3479,19 +3480,19 @@
         <v>41654</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>29591</v>
+        <v>30772</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>56041</v>
+        <v>56676</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04653591691684495</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03305897106838461</v>
+        <v>0.03437819221363848</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.06260869596561702</v>
+        <v>0.06331726773518555</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>30</v>
@@ -3500,19 +3501,19 @@
         <v>33431</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>24220</v>
+        <v>22790</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>48727</v>
+        <v>45195</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05879389868952324</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0425957427014179</v>
+        <v>0.04007997871372299</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08569445996390407</v>
+        <v>0.07948208218645079</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>69</v>
@@ -3521,19 +3522,19 @@
         <v>75085</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>59059</v>
+        <v>58972</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>94794</v>
+        <v>93140</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.05129779890417314</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04034876818079982</v>
+        <v>0.04028953287418329</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.06476227195898929</v>
+        <v>0.06363257959370898</v>
       </c>
     </row>
     <row r="12">
@@ -3550,19 +3551,19 @@
         <v>248773</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>220820</v>
+        <v>223217</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>277183</v>
+        <v>276700</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.277926790659399</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2466973858116868</v>
+        <v>0.2493752441471895</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3096652967825476</v>
+        <v>0.3091262955844365</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>87</v>
@@ -3571,19 +3572,19 @@
         <v>92784</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>76666</v>
+        <v>75120</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>113234</v>
+        <v>111984</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1631751809282425</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1348301033808873</v>
+        <v>0.1321104066582273</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1991406456885656</v>
+        <v>0.1969426610471653</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>318</v>
@@ -3592,19 +3593,19 @@
         <v>341557</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>309347</v>
+        <v>311754</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>375552</v>
+        <v>378923</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2333490099505347</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2113437835313882</v>
+        <v>0.2129881500080755</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2565743019048763</v>
+        <v>0.2588771506166934</v>
       </c>
     </row>
     <row r="13">
@@ -3621,19 +3622,19 @@
         <v>29565</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>19396</v>
+        <v>18699</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>43902</v>
+        <v>43714</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03302949394490882</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02166889745040916</v>
+        <v>0.02089081749899023</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04904731211839609</v>
+        <v>0.04883725669244996</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -3642,19 +3643,19 @@
         <v>7560</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3113</v>
+        <v>3353</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>14102</v>
+        <v>14861</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01329516757175277</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.005474988058932783</v>
+        <v>0.005895944773775919</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02480116354322596</v>
+        <v>0.02613608280201202</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>34</v>
@@ -3663,19 +3664,19 @@
         <v>37125</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>26161</v>
+        <v>26257</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>52577</v>
+        <v>51913</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02536326184968397</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01787318885589277</v>
+        <v>0.01793887632370439</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0359200437095472</v>
+        <v>0.03546671633786014</v>
       </c>
     </row>
     <row r="14">
@@ -3692,19 +3693,19 @@
         <v>16292</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9245</v>
+        <v>9569</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>25380</v>
+        <v>25926</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01820075188217995</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01032846982453726</v>
+        <v>0.01069082574125255</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02835399320012516</v>
+        <v>0.0289637817720419</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>42</v>
@@ -3713,19 +3714,19 @@
         <v>45216</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>33121</v>
+        <v>33711</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>60045</v>
+        <v>61078</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.07952034693323878</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05824936368685994</v>
+        <v>0.05928590112436192</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1055984836447585</v>
+        <v>0.1074165766332357</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>58</v>
@@ -3734,19 +3735,19 @@
         <v>61508</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>46892</v>
+        <v>48008</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>76912</v>
+        <v>80077</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04202169406980214</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03203623680248244</v>
+        <v>0.03279865213450432</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05254580726975981</v>
+        <v>0.05470809302019906</v>
       </c>
     </row>
     <row r="15">
@@ -3763,19 +3764,19 @@
         <v>198786</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>174101</v>
+        <v>172213</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>222676</v>
+        <v>223837</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2220811559427067</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1945041826197306</v>
+        <v>0.1923938686236016</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2487715617892477</v>
+        <v>0.2500677671431427</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>180</v>
@@ -3784,19 +3785,19 @@
         <v>192582</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>170002</v>
+        <v>168791</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>218608</v>
+        <v>215547</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3386870357412769</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2989773987427483</v>
+        <v>0.2968468429974321</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3844574578609207</v>
+        <v>0.3790747501546264</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>371</v>
@@ -3805,19 +3806,19 @@
         <v>391368</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>359424</v>
+        <v>358041</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>428193</v>
+        <v>428715</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2673792685461199</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2455556351607523</v>
+        <v>0.2446105030825523</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2925379792390196</v>
+        <v>0.2928945323549461</v>
       </c>
     </row>
     <row r="16">
@@ -3834,19 +3835,19 @@
         <v>360034</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>328241</v>
+        <v>327106</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>389544</v>
+        <v>388234</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4022258906539605</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3667071974292067</v>
+        <v>0.3654389020984362</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4351936226283632</v>
+        <v>0.4337309560919962</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>185</v>
@@ -3855,19 +3856,19 @@
         <v>197041</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>175245</v>
+        <v>172757</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>222501</v>
+        <v>219700</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3465283701359658</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3081965773680398</v>
+        <v>0.3038211618490734</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3913049168717069</v>
+        <v>0.3863780753074274</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>529</v>
@@ -3876,19 +3877,19 @@
         <v>557075</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>520200</v>
+        <v>520881</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>593596</v>
+        <v>594087</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3805889666796861</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3553965369616981</v>
+        <v>0.355861591097104</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4055403591165805</v>
+        <v>0.4058754244496736</v>
       </c>
     </row>
     <row r="17">
@@ -3980,19 +3981,19 @@
         <v>21170</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12421</v>
+        <v>12992</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>34163</v>
+        <v>34957</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.06799441197483268</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03989463558380482</v>
+        <v>0.04173010038493952</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.109728498415128</v>
+        <v>0.1122769087145293</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>11</v>
@@ -4001,19 +4002,19 @@
         <v>12944</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6886</v>
+        <v>6783</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>22721</v>
+        <v>22443</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.05604036526302784</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.029813131782618</v>
+        <v>0.02936525512496342</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.09837301109165575</v>
+        <v>0.09716941027093665</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>28</v>
@@ -4022,19 +4023,19 @@
         <v>34113</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>22960</v>
+        <v>23045</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>48473</v>
+        <v>50967</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.0629032055027101</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04233674619811523</v>
+        <v>0.04249294563820308</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.08938149241933989</v>
+        <v>0.09397934999725642</v>
       </c>
     </row>
     <row r="19">
@@ -4051,19 +4052,19 @@
         <v>57124</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>43028</v>
+        <v>43886</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>72922</v>
+        <v>72654</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1834751360487806</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1382009784289077</v>
+        <v>0.1409560016851984</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2342170021468743</v>
+        <v>0.2333547995205967</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>36</v>
@@ -4072,19 +4073,19 @@
         <v>41030</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>29980</v>
+        <v>30117</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>54792</v>
+        <v>54808</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1776410392215306</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1298006193663296</v>
+        <v>0.1303927916818311</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2372249495207421</v>
+        <v>0.2372927396098793</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>85</v>
@@ -4093,19 +4094,19 @@
         <v>98154</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>79718</v>
+        <v>79828</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>118445</v>
+        <v>118965</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1809904049579649</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1469953660581669</v>
+        <v>0.1471975950259332</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2184067452173734</v>
+        <v>0.2193641988018165</v>
       </c>
     </row>
     <row r="20">
@@ -4122,19 +4123,19 @@
         <v>6487</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2109</v>
+        <v>2083</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>15326</v>
+        <v>15824</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02083622180160884</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.006773702190493103</v>
+        <v>0.006689478890647609</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0492239415783596</v>
+        <v>0.05082373283807078</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -4143,19 +4144,19 @@
         <v>3916</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>987</v>
+        <v>997</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>12339</v>
+        <v>11938</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01695552603910892</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.004272496627109614</v>
+        <v>0.004316551422572011</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05342407044515528</v>
+        <v>0.05168612924335376</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>8</v>
@@ -4164,19 +4165,19 @@
         <v>10403</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4918</v>
+        <v>4972</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>20561</v>
+        <v>20845</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01918344062560194</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.009068896064210784</v>
+        <v>0.009168731151583037</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03791389532740159</v>
+        <v>0.03843763972936787</v>
       </c>
     </row>
     <row r="21">
@@ -4193,19 +4194,19 @@
         <v>10715</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5163</v>
+        <v>4823</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>19287</v>
+        <v>20438</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03441410051334593</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01658190557647272</v>
+        <v>0.01549143328680338</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.06194602441473492</v>
+        <v>0.0656444194548263</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>11</v>
@@ -4214,19 +4215,19 @@
         <v>13829</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7742</v>
+        <v>7063</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>24534</v>
+        <v>24857</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.05987273156772517</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03352127835395005</v>
+        <v>0.03057767261825847</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1062206343112714</v>
+        <v>0.1076188921612151</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>20</v>
@@ -4235,19 +4236,19 @@
         <v>24544</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>15108</v>
+        <v>15072</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>37947</v>
+        <v>37492</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04525688457804589</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02785865324738662</v>
+        <v>0.02779144538221779</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.06997259579368312</v>
+        <v>0.06913383796017945</v>
       </c>
     </row>
     <row r="22">
@@ -4264,19 +4265,19 @@
         <v>117894</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>99941</v>
+        <v>99432</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>136913</v>
+        <v>134765</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3786604877123459</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3209991370948808</v>
+        <v>0.3193639009153608</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.439749538868979</v>
+        <v>0.4328495571684207</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>99</v>
@@ -4285,19 +4286,19 @@
         <v>108675</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>92182</v>
+        <v>92017</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>125195</v>
+        <v>124506</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4705149489223178</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3991070623564047</v>
+        <v>0.3983909980071718</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5420382613008541</v>
+        <v>0.5390542910278329</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>208</v>
@@ -4306,19 +4307,19 @@
         <v>226569</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>202278</v>
+        <v>202818</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>251201</v>
+        <v>253255</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4177811335220806</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3729893177828552</v>
+        <v>0.3739849265097281</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4632013157582927</v>
+        <v>0.4669875465079794</v>
       </c>
     </row>
     <row r="23">
@@ -4335,19 +4336,19 @@
         <v>97955</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>80288</v>
+        <v>80866</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>117006</v>
+        <v>116100</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.314619641949086</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2578758788160909</v>
+        <v>0.2597327175903376</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3758106117800563</v>
+        <v>0.3728990346586639</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>46</v>
@@ -4356,19 +4357,19 @@
         <v>50577</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>37256</v>
+        <v>38466</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>64141</v>
+        <v>64205</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2189753889862897</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1613031531025147</v>
+        <v>0.1665422737099773</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2777024013070333</v>
+        <v>0.277979493637274</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>138</v>
@@ -4377,19 +4378,19 @@
         <v>148532</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>128307</v>
+        <v>127355</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>170615</v>
+        <v>172228</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2738849308135965</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2365910032916635</v>
+        <v>0.2348349120244326</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3146040496426297</v>
+        <v>0.3175780182432708</v>
       </c>
     </row>
     <row r="24">
@@ -4481,19 +4482,19 @@
         <v>76733</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>59665</v>
+        <v>59950</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>97883</v>
+        <v>96633</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05546839004514312</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04313040410552652</v>
+        <v>0.04333623316423026</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0707567661383606</v>
+        <v>0.06985330151656916</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>59</v>
@@ -4502,19 +4503,19 @@
         <v>65614</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>48790</v>
+        <v>51045</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>82390</v>
+        <v>84940</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07011945128756847</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05214007569674128</v>
+        <v>0.05455020305379551</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08804719970965982</v>
+        <v>0.0907721565978747</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>127</v>
@@ -4523,19 +4524,19 @@
         <v>142347</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>119944</v>
+        <v>120157</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>170496</v>
+        <v>169121</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0613799875120491</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05171982552918639</v>
+        <v>0.05181174872866146</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07351782058720435</v>
+        <v>0.07292478484387341</v>
       </c>
     </row>
     <row r="26">
@@ -4552,19 +4553,19 @@
         <v>330810</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>298828</v>
+        <v>298505</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>366863</v>
+        <v>366328</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2391339120856446</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2160143658794485</v>
+        <v>0.2157810510783527</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2651949725046104</v>
+        <v>0.2648084206391068</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>137</v>
@@ -4573,19 +4574,19 @@
         <v>149623</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>128289</v>
+        <v>126315</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>176170</v>
+        <v>174745</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1598973036051926</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1370976701829642</v>
+        <v>0.134988080294665</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1882672806847901</v>
+        <v>0.1867441648028641</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>441</v>
@@ -4594,19 +4595,19 @@
         <v>480434</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>435657</v>
+        <v>438750</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>519347</v>
+        <v>520801</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2071625124560489</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.187854673188858</v>
+        <v>0.189188493084043</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.223941951736054</v>
+        <v>0.2245687428630872</v>
       </c>
     </row>
     <row r="27">
@@ -4623,19 +4624,19 @@
         <v>44228</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>30718</v>
+        <v>31657</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>59972</v>
+        <v>60143</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.03197113738227333</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.02220510920230868</v>
+        <v>0.02288399190218833</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.04335200613990543</v>
+        <v>0.04347602277052415</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>10</v>
@@ -4644,19 +4645,19 @@
         <v>11476</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>5585</v>
+        <v>5571</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>20215</v>
+        <v>21280</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.01226405779745053</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.005968002061409229</v>
+        <v>0.005953186775151323</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.02160302566703364</v>
+        <v>0.02274165347016556</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>50</v>
@@ -4665,19 +4666,19 @@
         <v>55704</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>41959</v>
+        <v>42100</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>73870</v>
+        <v>73980</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.02401947300615285</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.01809262552613672</v>
+        <v>0.01815336663591769</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.03185260469986206</v>
+        <v>0.03190003730603695</v>
       </c>
     </row>
     <row r="28">
@@ -4694,19 +4695,19 @@
         <v>28138</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>18416</v>
+        <v>19123</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>41320</v>
+        <v>41797</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02033998509978801</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01331216889053109</v>
+        <v>0.01382318759606208</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02986908660810346</v>
+        <v>0.03021391264884459</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>62</v>
@@ -4715,19 +4716,19 @@
         <v>68213</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>52317</v>
+        <v>53202</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>85667</v>
+        <v>87139</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07289719649283896</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05590987703119905</v>
+        <v>0.05685480919607437</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09154983502216513</v>
+        <v>0.09312279260400982</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>88</v>
@@ -4736,19 +4737,19 @@
         <v>96351</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>78271</v>
+        <v>77024</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>116737</v>
+        <v>116843</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.0415464405638544</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03375053896876329</v>
+        <v>0.03321251014988184</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05033707362662402</v>
+        <v>0.05038266665333041</v>
       </c>
     </row>
     <row r="29">
@@ -4765,19 +4766,19 @@
         <v>371630</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>336083</v>
+        <v>337540</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>407296</v>
+        <v>406336</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2686411906958525</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2429454237075029</v>
+        <v>0.2439982019544558</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2944235639515605</v>
+        <v>0.2937294627231705</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>319</v>
@@ -4786,19 +4787,19 @@
         <v>345281</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>313751</v>
+        <v>313874</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>375528</v>
+        <v>377928</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3689899936389702</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3352951608402097</v>
+        <v>0.3354269161723079</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.4013136210948591</v>
+        <v>0.4038793292285755</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>672</v>
@@ -4807,19 +4808,19 @@
         <v>716911</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>670012</v>
+        <v>668425</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>764860</v>
+        <v>766225</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3091312084133254</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2889085957503119</v>
+        <v>0.2882243115932784</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3298070420077481</v>
+        <v>0.3303954873812466</v>
       </c>
     </row>
     <row r="30">
@@ -4836,19 +4837,19 @@
         <v>531830</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>498158</v>
+        <v>496819</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>571444</v>
+        <v>573528</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3844453846912985</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3601046802601732</v>
+        <v>0.3591370026276783</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4130817332320483</v>
+        <v>0.4145880035126642</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>276</v>
@@ -4857,19 +4858,19 @@
         <v>295539</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>264536</v>
+        <v>263303</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>326944</v>
+        <v>323055</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3158319971779792</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2827003018321013</v>
+        <v>0.2813826876900057</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3493937637114222</v>
+        <v>0.3452380052820384</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>784</v>
@@ -4878,19 +4879,19 @@
         <v>827368</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>780951</v>
+        <v>781704</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>877615</v>
+        <v>877528</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3567603780485694</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3367451044213287</v>
+        <v>0.3370698594585033</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3784264732382792</v>
+        <v>0.3783893532833295</v>
       </c>
     </row>
     <row r="31">
@@ -5221,19 +5222,19 @@
         <v>14718</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8600</v>
+        <v>8630</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23832</v>
+        <v>24053</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1139375234820742</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06657770601128959</v>
+        <v>0.06681255577815827</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1844952811266913</v>
+        <v>0.1862093885471744</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -5242,19 +5243,19 @@
         <v>11909</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6624</v>
+        <v>6884</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18933</v>
+        <v>18935</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1911874281586251</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1063379420944251</v>
+        <v>0.1105068294724368</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3039421029028927</v>
+        <v>0.3039816503989303</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>25</v>
@@ -5263,19 +5264,19 @@
         <v>26627</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17809</v>
+        <v>17555</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>37005</v>
+        <v>37639</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1390701661065582</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.09301383284745961</v>
+        <v>0.09168762668030404</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1932726344037687</v>
+        <v>0.1965865763988034</v>
       </c>
     </row>
     <row r="5">
@@ -5292,19 +5293,19 @@
         <v>20907</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>13144</v>
+        <v>13046</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>30083</v>
+        <v>30541</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1618531204658739</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1017520286995904</v>
+        <v>0.1009956186817469</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2328927035692277</v>
+        <v>0.2364361296233286</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -5313,19 +5314,19 @@
         <v>5714</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1981</v>
+        <v>1966</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11424</v>
+        <v>11664</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09172505901663654</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03179696608325136</v>
+        <v>0.03155879348533602</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1833927497241892</v>
+        <v>0.1872480084191293</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>24</v>
@@ -5334,19 +5335,19 @@
         <v>26621</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>18255</v>
+        <v>18029</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>37220</v>
+        <v>39792</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1390375129420689</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09534277888857309</v>
+        <v>0.09416630699991997</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1943979224796889</v>
+        <v>0.2078324710439788</v>
       </c>
     </row>
     <row r="6">
@@ -5366,7 +5367,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6434</v>
+        <v>6946</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01458488183114471</v>
@@ -5375,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0498119067545147</v>
+        <v>0.05376987528119576</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -5400,7 +5401,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>6732</v>
+        <v>6672</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.009839806425326669</v>
@@ -5409,7 +5410,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03516299192941304</v>
+        <v>0.03484672711804624</v>
       </c>
     </row>
     <row r="7">
@@ -5439,19 +5440,19 @@
         <v>5929</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1983</v>
+        <v>2024</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>11783</v>
+        <v>11745</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09517465511054692</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03183721212869531</v>
+        <v>0.03249879383191596</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1891596008503178</v>
+        <v>0.1885432909493251</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -5460,19 +5461,19 @@
         <v>5929</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2056</v>
+        <v>1994</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>13005</v>
+        <v>12049</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03096431774016128</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01074011233561047</v>
+        <v>0.01041472223421352</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0679224409501078</v>
+        <v>0.06293329626181808</v>
       </c>
     </row>
     <row r="8">
@@ -5489,19 +5490,19 @@
         <v>38347</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>28955</v>
+        <v>28310</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>51040</v>
+        <v>49491</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2968673589907188</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.224159437061024</v>
+        <v>0.2191614183045356</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3951357595227418</v>
+        <v>0.3831368365384602</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>21</v>
@@ -5510,19 +5511,19 @@
         <v>21290</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>14418</v>
+        <v>14166</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>28988</v>
+        <v>28851</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3417865741385274</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.231458905589716</v>
+        <v>0.2274200221176583</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4653618651667459</v>
+        <v>0.4631592765248748</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>59</v>
@@ -5531,19 +5532,19 @@
         <v>59637</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>48244</v>
+        <v>46764</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>73551</v>
+        <v>72614</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3114814686910363</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2519720338947553</v>
+        <v>0.2442447498627828</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3841506763752935</v>
+        <v>0.3792556642391537</v>
       </c>
     </row>
     <row r="9">
@@ -5560,19 +5561,19 @@
         <v>53317</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>42528</v>
+        <v>41513</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>65202</v>
+        <v>64738</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4127571152301883</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3292350211246114</v>
+        <v>0.3213774544660601</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5047695910388118</v>
+        <v>0.5011733537790752</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>17</v>
@@ -5581,19 +5582,19 @@
         <v>17449</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>10328</v>
+        <v>10845</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>24540</v>
+        <v>24064</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2801262835756641</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1658077257183633</v>
+        <v>0.1741079132314898</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3939568997623088</v>
+        <v>0.3863105807267544</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>66</v>
@@ -5602,19 +5603,19 @@
         <v>70766</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>57577</v>
+        <v>58038</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>84089</v>
+        <v>84187</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3696067280948487</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3007194235811136</v>
+        <v>0.3031269695192123</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4391872848883484</v>
+        <v>0.4397031857872062</v>
       </c>
     </row>
     <row r="10">
@@ -5706,19 +5707,19 @@
         <v>93488</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>74127</v>
+        <v>76347</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>113649</v>
+        <v>116933</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1065887414082533</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08451477255072473</v>
+        <v>0.08704572219282795</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1295753813777559</v>
+        <v>0.1333193324485666</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>74</v>
@@ -5727,19 +5728,19 @@
         <v>77255</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>62313</v>
+        <v>63309</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>96809</v>
+        <v>96929</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1247229950203356</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1006003919683893</v>
+        <v>0.1022080373027142</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1562923398758093</v>
+        <v>0.156486021148326</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>157</v>
@@ -5748,19 +5749,19 @@
         <v>170743</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>147426</v>
+        <v>147191</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>196185</v>
+        <v>199424</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1140946325122525</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09851397536794594</v>
+        <v>0.09835664506402121</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1310961134892843</v>
+        <v>0.1332605539136367</v>
       </c>
     </row>
     <row r="12">
@@ -5777,19 +5778,19 @@
         <v>183695</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>162720</v>
+        <v>157707</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>210166</v>
+        <v>207524</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2094373558059517</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1855225975027061</v>
+        <v>0.1798076544228355</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2396174942366093</v>
+        <v>0.2366059357092822</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>109</v>
@@ -5798,19 +5799,19 @@
         <v>110786</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>92930</v>
+        <v>93128</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>129273</v>
+        <v>132828</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1788574857799986</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.150030368618917</v>
+        <v>0.1503485881884276</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2087032380759055</v>
+        <v>0.2144429203003413</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>281</v>
@@ -5819,19 +5820,19 @@
         <v>294481</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>260986</v>
+        <v>264010</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>324872</v>
+        <v>324178</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1967801392863633</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1743979554858612</v>
+        <v>0.1764183573513465</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2170881979155079</v>
+        <v>0.2166244792288287</v>
       </c>
     </row>
     <row r="13">
@@ -5848,19 +5849,19 @@
         <v>20132</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11816</v>
+        <v>12447</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>31780</v>
+        <v>31278</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02295285928941608</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01347187495639451</v>
+        <v>0.01419123507937862</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03623309129922653</v>
+        <v>0.03566145554399427</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -5869,19 +5870,19 @@
         <v>6207</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2117</v>
+        <v>2159</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12513</v>
+        <v>12440</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01002156567583532</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003418247829410755</v>
+        <v>0.003485043989744297</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02020224064319599</v>
+        <v>0.02008340041952792</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>24</v>
@@ -5890,19 +5891,19 @@
         <v>26339</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>17321</v>
+        <v>17384</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>39210</v>
+        <v>38177</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01760050877234219</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01157442731753837</v>
+        <v>0.01161641182440043</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02620106452074761</v>
+        <v>0.02551116326767143</v>
       </c>
     </row>
     <row r="14">
@@ -5919,19 +5920,19 @@
         <v>22944</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>14579</v>
+        <v>14491</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>33884</v>
+        <v>34747</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02615900372116396</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01662236205412444</v>
+        <v>0.01652187196052284</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03863257337399125</v>
+        <v>0.03961660034162876</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>44</v>
@@ -5940,19 +5941,19 @@
         <v>45992</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>34391</v>
+        <v>33974</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>59488</v>
+        <v>61073</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0742506344891572</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05552143246102202</v>
+        <v>0.05484849210702838</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09603961647850195</v>
+        <v>0.09859857291647105</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>65</v>
@@ -5961,19 +5962,19 @@
         <v>68935</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>54419</v>
+        <v>54105</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>86493</v>
+        <v>85620</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04606445730530221</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03636400185691814</v>
+        <v>0.03615430238652101</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05779705065131089</v>
+        <v>0.05721359621778159</v>
       </c>
     </row>
     <row r="15">
@@ -5990,19 +5991,19 @@
         <v>193920</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>169638</v>
+        <v>170996</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>218429</v>
+        <v>220456</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2210957264906248</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1934104624623181</v>
+        <v>0.1949584792816577</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.249039343866179</v>
+        <v>0.2513496682112067</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>168</v>
@@ -6011,19 +6012,19 @@
         <v>173205</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>152113</v>
+        <v>151084</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>194558</v>
+        <v>194409</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2796289723604709</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2455764978688947</v>
+        <v>0.2439160000350484</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3141020875255479</v>
+        <v>0.3138618286888818</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>351</v>
@@ -6032,19 +6033,19 @@
         <v>367126</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>334595</v>
+        <v>335449</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>400456</v>
+        <v>402802</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2453230356956728</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.223585136418883</v>
+        <v>0.2241560253207201</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2675949251927129</v>
+        <v>0.2691630538278739</v>
       </c>
     </row>
     <row r="16">
@@ -6061,19 +6062,19 @@
         <v>362909</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>333497</v>
+        <v>332418</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>393960</v>
+        <v>392180</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4137663132845902</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3802318911293976</v>
+        <v>0.379001352718542</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.449168593057172</v>
+        <v>0.4471383635602141</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>203</v>
@@ -6082,19 +6083,19 @@
         <v>205966</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>184970</v>
+        <v>182962</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>232836</v>
+        <v>230349</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3325183466742024</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2986216000347683</v>
+        <v>0.2953811725727685</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3758991047116446</v>
+        <v>0.3718841734760183</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>544</v>
@@ -6103,19 +6104,19 @@
         <v>568875</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>537540</v>
+        <v>531064</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>609468</v>
+        <v>607598</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.380137226428067</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3591987009685973</v>
+        <v>0.3548706788971161</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4072628171280647</v>
+        <v>0.4060131026218512</v>
       </c>
     </row>
     <row r="17">
@@ -6207,19 +6208,19 @@
         <v>38880</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>28173</v>
+        <v>27958</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>55615</v>
+        <v>54424</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.115121099741028</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.08341942422134369</v>
+        <v>0.08278317284798328</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1646723458526876</v>
+        <v>0.1611455315961027</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>27</v>
@@ -6228,19 +6229,19 @@
         <v>29575</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>19836</v>
+        <v>19890</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>42308</v>
+        <v>42960</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.09859881921555509</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06613186459870221</v>
+        <v>0.06631114097387507</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1410514874195039</v>
+        <v>0.1432232971490334</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>59</v>
@@ -6249,19 +6250,19 @@
         <v>68455</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>51943</v>
+        <v>54451</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>87397</v>
+        <v>89154</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1073494235528938</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0814566091546419</v>
+        <v>0.08538905975329578</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1370538716487818</v>
+        <v>0.1398091900497081</v>
       </c>
     </row>
     <row r="19">
@@ -6278,19 +6279,19 @@
         <v>46414</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>34221</v>
+        <v>33980</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>60919</v>
+        <v>60392</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.137428840693975</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1013254728249725</v>
+        <v>0.1006136653838712</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1803774195948493</v>
+        <v>0.1788172688008469</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>43</v>
@@ -6299,19 +6300,19 @@
         <v>45077</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>33787</v>
+        <v>33483</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>59827</v>
+        <v>58985</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1502823349694561</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.112642058245194</v>
+        <v>0.1116289610997694</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1994559314966835</v>
+        <v>0.1966517593161345</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>85</v>
@@ -6320,19 +6321,19 @@
         <v>91491</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>74904</v>
+        <v>74170</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>110543</v>
+        <v>113420</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1434748096654537</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1174635871880527</v>
+        <v>0.1163123505692788</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1733509802104543</v>
+        <v>0.1778626765330112</v>
       </c>
     </row>
     <row r="20">
@@ -6349,19 +6350,19 @@
         <v>3982</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9919</v>
+        <v>9073</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01178935002151733</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.00295221488346119</v>
+        <v>0.002958960137559401</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02937032212840175</v>
+        <v>0.02686388522298409</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -6373,7 +6374,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6267</v>
+        <v>6870</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.003494199362850567</v>
@@ -6382,7 +6383,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02089198468123026</v>
+        <v>0.02290285206621905</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5</v>
@@ -6391,19 +6392,19 @@
         <v>5030</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1065</v>
+        <v>1936</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>11326</v>
+        <v>10872</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.00788751426999652</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.001669963022363179</v>
+        <v>0.00303608181586297</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01776173419776507</v>
+        <v>0.01704877473922945</v>
       </c>
     </row>
     <row r="21">
@@ -6420,19 +6421,19 @@
         <v>8058</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3836</v>
+        <v>3895</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>15725</v>
+        <v>15141</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02385937798408658</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0113569491636142</v>
+        <v>0.011532650736617</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04656023184052338</v>
+        <v>0.0448317831634777</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>21</v>
@@ -6441,19 +6442,19 @@
         <v>22063</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>14596</v>
+        <v>13552</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>33675</v>
+        <v>32696</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.0735548717549996</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.04866256354099835</v>
+        <v>0.04518054540712426</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1122685693137264</v>
+        <v>0.1090038586190337</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>29</v>
@@ -6462,19 +6463,19 @@
         <v>30121</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>20729</v>
+        <v>21327</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>42405</v>
+        <v>42174</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.04723492139055116</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0325063867211357</v>
+        <v>0.03344442556896846</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.06649938187455133</v>
+        <v>0.06613674550832954</v>
       </c>
     </row>
     <row r="22">
@@ -6491,19 +6492,19 @@
         <v>145741</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>126312</v>
+        <v>127311</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>165626</v>
+        <v>165264</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4315295087715403</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3740007216937108</v>
+        <v>0.3769586958072332</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4904085468750323</v>
+        <v>0.4893373702918135</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>136</v>
@@ -6512,19 +6513,19 @@
         <v>137170</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>119435</v>
+        <v>118887</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>153576</v>
+        <v>153543</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.457309552023453</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3981851288389195</v>
+        <v>0.3963579539471405</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5120069155105798</v>
+        <v>0.5118979123519444</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>269</v>
@@ -6533,19 +6534,19 @@
         <v>282911</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>257574</v>
+        <v>257108</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>309011</v>
+        <v>310796</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4436558098569787</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.403922516682461</v>
+        <v>0.4031916943197139</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4845858897714486</v>
+        <v>0.487384843776544</v>
       </c>
     </row>
     <row r="23">
@@ -6562,19 +6563,19 @@
         <v>94656</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>79258</v>
+        <v>78519</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>112702</v>
+        <v>112561</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2802718227878528</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2346764760170512</v>
+        <v>0.2324885863975328</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3337034638170598</v>
+        <v>0.3332864123157369</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>63</v>
@@ -6583,19 +6584,19 @@
         <v>65017</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>51722</v>
+        <v>51052</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>79644</v>
+        <v>80378</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2167602226736857</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.172437584703554</v>
+        <v>0.1702015984655793</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2655266863236757</v>
+        <v>0.2679734863165225</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>152</v>
@@ -6604,19 +6605,19 @@
         <v>159674</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>138471</v>
+        <v>138804</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>183498</v>
+        <v>184836</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2503975212641262</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2171471284020159</v>
+        <v>0.2176699911109492</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2877585043698859</v>
+        <v>0.2898561119463683</v>
       </c>
     </row>
     <row r="24">
@@ -6708,19 +6709,19 @@
         <v>147085</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>124508</v>
+        <v>124664</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>172631</v>
+        <v>175576</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1094391346121342</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09264076212621615</v>
+        <v>0.09275678174246772</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1284468389612076</v>
+        <v>0.1306377361411185</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>113</v>
@@ -6729,19 +6730,19 @@
         <v>118739</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>99844</v>
+        <v>100596</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>140199</v>
+        <v>139713</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1209581336217552</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1017101655398136</v>
+        <v>0.1024766598667549</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1428196670243466</v>
+        <v>0.1423241218387309</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>241</v>
@@ -6750,19 +6751,19 @@
         <v>265824</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>234873</v>
+        <v>235013</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>298286</v>
+        <v>302209</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1143012923821536</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1009927242666891</v>
+        <v>0.10105276583131</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1282595616133948</v>
+        <v>0.1299465676938977</v>
       </c>
     </row>
     <row r="26">
@@ -6779,19 +6780,19 @@
         <v>251016</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>222033</v>
+        <v>223927</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>280190</v>
+        <v>281518</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1867689846344466</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.165204433207029</v>
+        <v>0.1666133033470897</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.208476332863585</v>
+        <v>0.2094645620043749</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>158</v>
@@ -6800,19 +6801,19 @@
         <v>161577</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>140428</v>
+        <v>141032</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>187593</v>
+        <v>187070</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1645971533998923</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.143053312332537</v>
+        <v>0.1436686089768393</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1910996101763463</v>
+        <v>0.1905662034172817</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>390</v>
@@ -6821,19 +6822,19 @@
         <v>412593</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>376228</v>
+        <v>379421</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>451953</v>
+        <v>449068</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1774102772135495</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1617738826300922</v>
+        <v>0.1631468720156493</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1943348059691885</v>
+        <v>0.193093944619252</v>
       </c>
     </row>
     <row r="27">
@@ -6850,19 +6851,19 @@
         <v>25997</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>17639</v>
+        <v>16964</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>38082</v>
+        <v>37722</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.01934332894513569</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01312462678110422</v>
+        <v>0.01262242286078754</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.02833506805788031</v>
+        <v>0.02806702576278163</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>7</v>
@@ -6871,19 +6872,19 @@
         <v>7256</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>3107</v>
+        <v>3084</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>14457</v>
+        <v>13695</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.007391167856405687</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.003165015718005504</v>
+        <v>0.003141146198410939</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.01472704048540627</v>
+        <v>0.01395076616157546</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>31</v>
@@ -6892,19 +6893,19 @@
         <v>33253</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>23281</v>
+        <v>23441</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>47141</v>
+        <v>46566</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.01429833390194189</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.01001077127996604</v>
+        <v>0.01007941746845597</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.02026998112905547</v>
+        <v>0.02002267289451893</v>
       </c>
     </row>
     <row r="28">
@@ -6921,19 +6922,19 @@
         <v>31002</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>20853</v>
+        <v>21303</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>43427</v>
+        <v>44306</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02306696182495041</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01551575989794344</v>
+        <v>0.01585082768517018</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.032311986846394</v>
+        <v>0.03296627336631845</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>71</v>
@@ -6942,19 +6943,19 @@
         <v>73983</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>57922</v>
+        <v>60268</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>92447</v>
+        <v>91342</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.07536578377054967</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0590044977892047</v>
+        <v>0.06139438110309355</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09417536074337049</v>
+        <v>0.0930497643564787</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>100</v>
@@ -6963,19 +6964,19 @@
         <v>104985</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>85868</v>
+        <v>86255</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>126247</v>
+        <v>126972</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04514224139336349</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03692230294135342</v>
+        <v>0.03708880379897437</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.05428473293022214</v>
+        <v>0.05459639965314333</v>
       </c>
     </row>
     <row r="29">
@@ -6992,19 +6993,19 @@
         <v>378008</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>348622</v>
+        <v>344706</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>414639</v>
+        <v>412220</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2812580654259897</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2593933415918032</v>
+        <v>0.256479273322037</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3085130865320108</v>
+        <v>0.3067135162995568</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>325</v>
@@ -7013,19 +7014,19 @@
         <v>331665</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>302180</v>
+        <v>301604</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>361516</v>
+        <v>361569</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3378645439291378</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3078285624328606</v>
+        <v>0.3072411787077623</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3682729580165203</v>
+        <v>0.3683276382095051</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>679</v>
@@ -7034,19 +7035,19 @@
         <v>709674</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>659933</v>
+        <v>662810</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>752539</v>
+        <v>754892</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3051516024475346</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2837637205249113</v>
+        <v>0.2850008542823393</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3235832095955376</v>
+        <v>0.3245950161674601</v>
       </c>
     </row>
     <row r="30">
@@ -7063,19 +7064,19 @@
         <v>510883</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>474428</v>
+        <v>474967</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>545188</v>
+        <v>547395</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3801235245573434</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3529997294445649</v>
+        <v>0.3534002244727147</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4056485203203976</v>
+        <v>0.4072906228198829</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>283</v>
@@ -7084,19 +7085,19 @@
         <v>288432</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>259709</v>
+        <v>259341</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>315854</v>
+        <v>315156</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2938232174222593</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2645633822557557</v>
+        <v>0.2641885001788323</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3217581581269575</v>
+        <v>0.3210471242887558</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>762</v>
@@ -7105,19 +7106,19 @@
         <v>799315</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>754029</v>
+        <v>754244</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>848466</v>
+        <v>841814</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.343696252661457</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3242239420109669</v>
+        <v>0.3243163609601918</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3648306476899422</v>
+        <v>0.3619702286533781</v>
       </c>
     </row>
     <row r="31">
@@ -7180,6 +7181,2241 @@
       </c>
       <c r="T31" s="5" t="n">
         <v>2325643</v>
+      </c>
+      <c r="U31" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W31" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A4:A10"/>
+    <mergeCell ref="A25:A31"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A18:A24"/>
+    <mergeCell ref="A11:A17"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población menor de 65 años que trabaja actualmente según el tipo de jornada que tiene en su trabajo en 2023 (tasa de respuesta: 99,43%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>n (muestra)</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Estimación puntual</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>lím inf IC</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>lím sup IC</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>n (muestra)</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Estimación puntual</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>lím inf IC</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>lím sup IC</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>n (muestra)</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>Estimación puntual</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>lím inf IC</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>lím sup IC</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Otra posibilidad</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>13779</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>7218</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>24236</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.08664713632854164</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.04538980230439117</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.1524089571361145</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>18591</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>12845</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>26060</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>0.2196164636209051</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>0.151744597851619</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>0.3078616873861858</v>
+      </c>
+      <c r="Q4" s="5" t="n">
+        <v>37</v>
+      </c>
+      <c r="R4" s="5" t="n">
+        <v>32369</v>
+      </c>
+      <c r="S4" s="5" t="n">
+        <v>23521</v>
+      </c>
+      <c r="T4" s="5" t="n">
+        <v>44403</v>
+      </c>
+      <c r="U4" s="6" t="n">
+        <v>0.1328404235165472</v>
+      </c>
+      <c r="V4" s="6" t="n">
+        <v>0.09652804608309118</v>
+      </c>
+      <c r="W4" s="6" t="n">
+        <v>0.1822262946953133</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Turnos</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>22382</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>13275</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>33605</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>0.1407521490410364</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.0834775254574366</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.211327829088918</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>16</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>11013</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>6557</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>17402</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>0.1301040798065503</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>0.07745996483793799</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>0.2055730572297009</v>
+      </c>
+      <c r="Q5" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="R5" s="5" t="n">
+        <v>33396</v>
+      </c>
+      <c r="S5" s="5" t="n">
+        <v>23457</v>
+      </c>
+      <c r="T5" s="5" t="n">
+        <v>46776</v>
+      </c>
+      <c r="U5" s="6" t="n">
+        <v>0.1370530303783926</v>
+      </c>
+      <c r="V5" s="6" t="n">
+        <v>0.09626514966215373</v>
+      </c>
+      <c r="W5" s="6" t="n">
+        <v>0.1919669456784271</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Jornada continua nocturna</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>6992</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>2955</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>13665</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.04397028997889987</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.01858084030777337</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.08593326213764328</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5" t="inlineStr"/>
+      <c r="M6" s="5" t="inlineStr"/>
+      <c r="N6" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6" t="inlineStr"/>
+      <c r="P6" s="6" t="inlineStr"/>
+      <c r="Q6" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="R6" s="5" t="n">
+        <v>6992</v>
+      </c>
+      <c r="S6" s="5" t="n">
+        <v>2972</v>
+      </c>
+      <c r="T6" s="5" t="n">
+        <v>13396</v>
+      </c>
+      <c r="U6" s="6" t="n">
+        <v>0.0286950962624626</v>
+      </c>
+      <c r="V6" s="6" t="n">
+        <v>0.01219871943472784</v>
+      </c>
+      <c r="W6" s="6" t="n">
+        <v>0.05497463247084833</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Jornada continua de tarde</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>3531</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>13342</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>0.02220513558899753</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.08390254264001572</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>2611</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>679</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>6345</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0.0308416921140202</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>0.008018871170097492</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>0.07495464505107033</v>
+      </c>
+      <c r="Q7" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R7" s="5" t="n">
+        <v>6142</v>
+      </c>
+      <c r="S7" s="5" t="n">
+        <v>2320</v>
+      </c>
+      <c r="T7" s="5" t="n">
+        <v>15552</v>
+      </c>
+      <c r="U7" s="6" t="n">
+        <v>0.02520545862589333</v>
+      </c>
+      <c r="V7" s="6" t="n">
+        <v>0.009520571166643161</v>
+      </c>
+      <c r="W7" s="6" t="n">
+        <v>0.06382536446356422</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>Jornada continua de mañana</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>73683</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>59746</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>88170</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>0.4633566187684001</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.3757137614977477</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.554461398277497</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>46</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>35337</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>27973</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>43651</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>0.4174431297108931</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>0.3304502611463577</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>0.5156671759255959</v>
+      </c>
+      <c r="Q8" s="5" t="n">
+        <v>108</v>
+      </c>
+      <c r="R8" s="5" t="n">
+        <v>109019</v>
+      </c>
+      <c r="S8" s="5" t="n">
+        <v>93067</v>
+      </c>
+      <c r="T8" s="5" t="n">
+        <v>124932</v>
+      </c>
+      <c r="U8" s="6" t="n">
+        <v>0.4474063614494811</v>
+      </c>
+      <c r="V8" s="6" t="n">
+        <v>0.3819422151171374</v>
+      </c>
+      <c r="W8" s="6" t="n">
+        <v>0.5127098680446126</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Jornada partida</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>35</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>38653</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>27885</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>50617</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.2430686702941244</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.1753566922450504</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.3183096333876093</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>17099</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>10980</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>24623</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>0.2019946347476311</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>0.1297063948552765</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>0.2908760145637995</v>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="R9" s="5" t="n">
+        <v>55751</v>
+      </c>
+      <c r="S9" s="5" t="n">
+        <v>43427</v>
+      </c>
+      <c r="T9" s="5" t="n">
+        <v>71250</v>
+      </c>
+      <c r="U9" s="6" t="n">
+        <v>0.2287996297672233</v>
+      </c>
+      <c r="V9" s="6" t="n">
+        <v>0.1782202689411658</v>
+      </c>
+      <c r="W9" s="6" t="n">
+        <v>0.2924065274288684</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>137</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>159019</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>159019</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>159019</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>115</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>84650</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>84650</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>84650</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="5" t="n">
+        <v>252</v>
+      </c>
+      <c r="R10" s="5" t="n">
+        <v>243669</v>
+      </c>
+      <c r="S10" s="5" t="n">
+        <v>243669</v>
+      </c>
+      <c r="T10" s="5" t="n">
+        <v>243669</v>
+      </c>
+      <c r="U10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W10" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>Otra posibilidad</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>63</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>70479</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>54267</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>89054</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>0.05598461174868545</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>0.04310707174594366</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>0.07074010306131706</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>107</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>85276</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>69954</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>102212</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>0.09156352892178951</v>
+      </c>
+      <c r="O11" s="6" t="n">
+        <v>0.07511184416296428</v>
+      </c>
+      <c r="P11" s="6" t="n">
+        <v>0.1097473256894479</v>
+      </c>
+      <c r="Q11" s="5" t="n">
+        <v>170</v>
+      </c>
+      <c r="R11" s="5" t="n">
+        <v>155755</v>
+      </c>
+      <c r="S11" s="5" t="n">
+        <v>131885</v>
+      </c>
+      <c r="T11" s="5" t="n">
+        <v>181929</v>
+      </c>
+      <c r="U11" s="6" t="n">
+        <v>0.07111359388622865</v>
+      </c>
+      <c r="V11" s="6" t="n">
+        <v>0.06021534713734007</v>
+      </c>
+      <c r="W11" s="6" t="n">
+        <v>0.08306395596632885</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Turnos</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>211</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>259337</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>225778</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>294642</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.2060044767461331</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.1793463212369068</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.2340490414053291</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>267</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>206633</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>185567</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>230715</v>
+      </c>
+      <c r="N12" s="6" t="n">
+        <v>0.2218670742194753</v>
+      </c>
+      <c r="O12" s="6" t="n">
+        <v>0.199248642782124</v>
+      </c>
+      <c r="P12" s="6" t="n">
+        <v>0.2477248164400024</v>
+      </c>
+      <c r="Q12" s="5" t="n">
+        <v>478</v>
+      </c>
+      <c r="R12" s="5" t="n">
+        <v>465970</v>
+      </c>
+      <c r="S12" s="5" t="n">
+        <v>427929</v>
+      </c>
+      <c r="T12" s="5" t="n">
+        <v>510132</v>
+      </c>
+      <c r="U12" s="6" t="n">
+        <v>0.2127496217054814</v>
+      </c>
+      <c r="V12" s="6" t="n">
+        <v>0.1953810084703179</v>
+      </c>
+      <c r="W12" s="6" t="n">
+        <v>0.2329124757929097</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Jornada continua nocturna</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>14679</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>8265</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>27088</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.01166040660535663</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.00656528198936798</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.0215177204967362</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>5270</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>2031</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>11989</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>0.005658234381601342</v>
+      </c>
+      <c r="O13" s="6" t="n">
+        <v>0.002181148861426044</v>
+      </c>
+      <c r="P13" s="6" t="n">
+        <v>0.0128729124830066</v>
+      </c>
+      <c r="Q13" s="5" t="n">
+        <v>19</v>
+      </c>
+      <c r="R13" s="5" t="n">
+        <v>19949</v>
+      </c>
+      <c r="S13" s="5" t="n">
+        <v>12787</v>
+      </c>
+      <c r="T13" s="5" t="n">
+        <v>32780</v>
+      </c>
+      <c r="U13" s="6" t="n">
+        <v>0.00910814353568971</v>
+      </c>
+      <c r="V13" s="6" t="n">
+        <v>0.005838220268590557</v>
+      </c>
+      <c r="W13" s="6" t="n">
+        <v>0.01496652028266639</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>Jornada continua de tarde</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>16632</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>9204</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>26749</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>0.01321160353663324</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.007310905202984067</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.02124792723267488</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>48</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>41025</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>30256</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>57728</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>0.0440501402005974</v>
+      </c>
+      <c r="O14" s="6" t="n">
+        <v>0.03248678516059016</v>
+      </c>
+      <c r="P14" s="6" t="n">
+        <v>0.06198391297811803</v>
+      </c>
+      <c r="Q14" s="5" t="n">
+        <v>62</v>
+      </c>
+      <c r="R14" s="5" t="n">
+        <v>57657</v>
+      </c>
+      <c r="S14" s="5" t="n">
+        <v>43715</v>
+      </c>
+      <c r="T14" s="5" t="n">
+        <v>76365</v>
+      </c>
+      <c r="U14" s="6" t="n">
+        <v>0.02632486575501739</v>
+      </c>
+      <c r="V14" s="6" t="n">
+        <v>0.01995910972093851</v>
+      </c>
+      <c r="W14" s="6" t="n">
+        <v>0.03486608195633925</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Jornada continua de mañana</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>433</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>509293</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>468092</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>548206</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.4045567069054667</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.3718284320530438</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.435466680738496</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>517</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>371168</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>342640</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>397183</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.3985330462861847</v>
+      </c>
+      <c r="O15" s="6" t="n">
+        <v>0.3679014096039685</v>
+      </c>
+      <c r="P15" s="6" t="n">
+        <v>0.4264663086716829</v>
+      </c>
+      <c r="Q15" s="5" t="n">
+        <v>950</v>
+      </c>
+      <c r="R15" s="5" t="n">
+        <v>880462</v>
+      </c>
+      <c r="S15" s="5" t="n">
+        <v>834521</v>
+      </c>
+      <c r="T15" s="5" t="n">
+        <v>929396</v>
+      </c>
+      <c r="U15" s="6" t="n">
+        <v>0.4019953064708118</v>
+      </c>
+      <c r="V15" s="6" t="n">
+        <v>0.3810198324114783</v>
+      </c>
+      <c r="W15" s="6" t="n">
+        <v>0.4243374428737492</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>Jornada partida</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>343</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>388472</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>352076</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>424875</v>
+      </c>
+      <c r="G16" s="6" t="n">
+        <v>0.3085821944577248</v>
+      </c>
+      <c r="H16" s="6" t="n">
+        <v>0.279671391200191</v>
+      </c>
+      <c r="I16" s="6" t="n">
+        <v>0.3374994806145838</v>
+      </c>
+      <c r="J16" s="5" t="n">
+        <v>295</v>
+      </c>
+      <c r="K16" s="5" t="n">
+        <v>221963</v>
+      </c>
+      <c r="L16" s="5" t="n">
+        <v>200696</v>
+      </c>
+      <c r="M16" s="5" t="n">
+        <v>245201</v>
+      </c>
+      <c r="N16" s="6" t="n">
+        <v>0.2383279759903517</v>
+      </c>
+      <c r="O16" s="6" t="n">
+        <v>0.2154929995208355</v>
+      </c>
+      <c r="P16" s="6" t="n">
+        <v>0.2632783866028997</v>
+      </c>
+      <c r="Q16" s="5" t="n">
+        <v>638</v>
+      </c>
+      <c r="R16" s="5" t="n">
+        <v>610435</v>
+      </c>
+      <c r="S16" s="5" t="n">
+        <v>570826</v>
+      </c>
+      <c r="T16" s="5" t="n">
+        <v>658319</v>
+      </c>
+      <c r="U16" s="6" t="n">
+        <v>0.2787084686467711</v>
+      </c>
+      <c r="V16" s="6" t="n">
+        <v>0.260624055730344</v>
+      </c>
+      <c r="W16" s="6" t="n">
+        <v>0.3005709773349286</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>1077</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>1258892</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>1258892</v>
+      </c>
+      <c r="F17" s="5" t="n">
+        <v>1258892</v>
+      </c>
+      <c r="G17" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5" t="n">
+        <v>1240</v>
+      </c>
+      <c r="K17" s="5" t="n">
+        <v>931336</v>
+      </c>
+      <c r="L17" s="5" t="n">
+        <v>931336</v>
+      </c>
+      <c r="M17" s="5" t="n">
+        <v>931336</v>
+      </c>
+      <c r="N17" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="5" t="n">
+        <v>2317</v>
+      </c>
+      <c r="R17" s="5" t="n">
+        <v>2190229</v>
+      </c>
+      <c r="S17" s="5" t="n">
+        <v>2190229</v>
+      </c>
+      <c r="T17" s="5" t="n">
+        <v>2190229</v>
+      </c>
+      <c r="U17" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W17" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Otra posibilidad</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>48698</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>35709</v>
+      </c>
+      <c r="F18" s="5" t="n">
+        <v>66003</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>0.1021826381648887</v>
+      </c>
+      <c r="H18" s="6" t="n">
+        <v>0.07492933734135752</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>0.1384955128202126</v>
+      </c>
+      <c r="J18" s="5" t="n">
+        <v>40</v>
+      </c>
+      <c r="K18" s="5" t="n">
+        <v>31116</v>
+      </c>
+      <c r="L18" s="5" t="n">
+        <v>22416</v>
+      </c>
+      <c r="M18" s="5" t="n">
+        <v>42452</v>
+      </c>
+      <c r="N18" s="6" t="n">
+        <v>0.06502589584157911</v>
+      </c>
+      <c r="O18" s="6" t="n">
+        <v>0.04684486409590723</v>
+      </c>
+      <c r="P18" s="6" t="n">
+        <v>0.08871589451599461</v>
+      </c>
+      <c r="Q18" s="5" t="n">
+        <v>81</v>
+      </c>
+      <c r="R18" s="5" t="n">
+        <v>79814</v>
+      </c>
+      <c r="S18" s="5" t="n">
+        <v>63842</v>
+      </c>
+      <c r="T18" s="5" t="n">
+        <v>99493</v>
+      </c>
+      <c r="U18" s="6" t="n">
+        <v>0.08356651951636165</v>
+      </c>
+      <c r="V18" s="6" t="n">
+        <v>0.06684383395045226</v>
+      </c>
+      <c r="W18" s="6" t="n">
+        <v>0.1041715306678389</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Turnos</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>66636</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>53507</v>
+      </c>
+      <c r="F19" s="5" t="n">
+        <v>85091</v>
+      </c>
+      <c r="G19" s="6" t="n">
+        <v>0.1398228035383258</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>0.1122735986923812</v>
+      </c>
+      <c r="I19" s="6" t="n">
+        <v>0.1785460379227472</v>
+      </c>
+      <c r="J19" s="5" t="n">
+        <v>104</v>
+      </c>
+      <c r="K19" s="5" t="n">
+        <v>80085</v>
+      </c>
+      <c r="L19" s="5" t="n">
+        <v>65982</v>
+      </c>
+      <c r="M19" s="5" t="n">
+        <v>95710</v>
+      </c>
+      <c r="N19" s="6" t="n">
+        <v>0.1673606725119511</v>
+      </c>
+      <c r="O19" s="6" t="n">
+        <v>0.1378891826336303</v>
+      </c>
+      <c r="P19" s="6" t="n">
+        <v>0.2000145783938213</v>
+      </c>
+      <c r="Q19" s="5" t="n">
+        <v>164</v>
+      </c>
+      <c r="R19" s="5" t="n">
+        <v>146721</v>
+      </c>
+      <c r="S19" s="5" t="n">
+        <v>125973</v>
+      </c>
+      <c r="T19" s="5" t="n">
+        <v>170176</v>
+      </c>
+      <c r="U19" s="6" t="n">
+        <v>0.153619713710911</v>
+      </c>
+      <c r="V19" s="6" t="n">
+        <v>0.1318962124758039</v>
+      </c>
+      <c r="W19" s="6" t="n">
+        <v>0.1781777393626074</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Jornada continua nocturna</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>4302</v>
+      </c>
+      <c r="E20" s="5" t="n">
+        <v>1146</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>10042</v>
+      </c>
+      <c r="G20" s="6" t="n">
+        <v>0.009026083351474968</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>0.002404728299854353</v>
+      </c>
+      <c r="I20" s="6" t="n">
+        <v>0.02107212964396846</v>
+      </c>
+      <c r="J20" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K20" s="5" t="n">
+        <v>2667</v>
+      </c>
+      <c r="L20" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="5" t="n">
+        <v>9592</v>
+      </c>
+      <c r="N20" s="6" t="n">
+        <v>0.005573019597234629</v>
+      </c>
+      <c r="O20" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" s="6" t="n">
+        <v>0.02004465191651275</v>
+      </c>
+      <c r="Q20" s="5" t="n">
+        <v>6</v>
+      </c>
+      <c r="R20" s="5" t="n">
+        <v>6968</v>
+      </c>
+      <c r="S20" s="5" t="n">
+        <v>2888</v>
+      </c>
+      <c r="T20" s="5" t="n">
+        <v>16625</v>
+      </c>
+      <c r="U20" s="6" t="n">
+        <v>0.007296043511315464</v>
+      </c>
+      <c r="V20" s="6" t="n">
+        <v>0.003023972521326076</v>
+      </c>
+      <c r="W20" s="6" t="n">
+        <v>0.01740677052968712</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>Jornada continua de tarde</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>11427</v>
+      </c>
+      <c r="E21" s="5" t="n">
+        <v>5656</v>
+      </c>
+      <c r="F21" s="5" t="n">
+        <v>20555</v>
+      </c>
+      <c r="G21" s="6" t="n">
+        <v>0.02397820790585563</v>
+      </c>
+      <c r="H21" s="6" t="n">
+        <v>0.01186718510269073</v>
+      </c>
+      <c r="I21" s="6" t="n">
+        <v>0.04313052459359182</v>
+      </c>
+      <c r="J21" s="5" t="n">
+        <v>21</v>
+      </c>
+      <c r="K21" s="5" t="n">
+        <v>19613</v>
+      </c>
+      <c r="L21" s="5" t="n">
+        <v>12719</v>
+      </c>
+      <c r="M21" s="5" t="n">
+        <v>30254</v>
+      </c>
+      <c r="N21" s="6" t="n">
+        <v>0.0409874954500176</v>
+      </c>
+      <c r="O21" s="6" t="n">
+        <v>0.02658034229876732</v>
+      </c>
+      <c r="P21" s="6" t="n">
+        <v>0.06322510891387814</v>
+      </c>
+      <c r="Q21" s="5" t="n">
+        <v>30</v>
+      </c>
+      <c r="R21" s="5" t="n">
+        <v>31041</v>
+      </c>
+      <c r="S21" s="5" t="n">
+        <v>20543</v>
+      </c>
+      <c r="T21" s="5" t="n">
+        <v>45146</v>
+      </c>
+      <c r="U21" s="6" t="n">
+        <v>0.0325001313913381</v>
+      </c>
+      <c r="V21" s="6" t="n">
+        <v>0.02150863791422395</v>
+      </c>
+      <c r="W21" s="6" t="n">
+        <v>0.04726918694150083</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Jornada continua de mañana</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>203</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>225662</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>201226</v>
+      </c>
+      <c r="F22" s="5" t="n">
+        <v>250967</v>
+      </c>
+      <c r="G22" s="6" t="n">
+        <v>0.4735087829823868</v>
+      </c>
+      <c r="H22" s="6" t="n">
+        <v>0.4222333490200146</v>
+      </c>
+      <c r="I22" s="6" t="n">
+        <v>0.5266050717911743</v>
+      </c>
+      <c r="J22" s="5" t="n">
+        <v>361</v>
+      </c>
+      <c r="K22" s="5" t="n">
+        <v>257475</v>
+      </c>
+      <c r="L22" s="5" t="n">
+        <v>237433</v>
+      </c>
+      <c r="M22" s="5" t="n">
+        <v>276823</v>
+      </c>
+      <c r="N22" s="6" t="n">
+        <v>0.5380714619542631</v>
+      </c>
+      <c r="O22" s="6" t="n">
+        <v>0.4961869016634494</v>
+      </c>
+      <c r="P22" s="6" t="n">
+        <v>0.5785045479567279</v>
+      </c>
+      <c r="Q22" s="5" t="n">
+        <v>564</v>
+      </c>
+      <c r="R22" s="5" t="n">
+        <v>483138</v>
+      </c>
+      <c r="S22" s="5" t="n">
+        <v>451822</v>
+      </c>
+      <c r="T22" s="5" t="n">
+        <v>515110</v>
+      </c>
+      <c r="U22" s="6" t="n">
+        <v>0.50585571161109</v>
+      </c>
+      <c r="V22" s="6" t="n">
+        <v>0.4730672018382389</v>
+      </c>
+      <c r="W22" s="6" t="n">
+        <v>0.5393316586155461</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>Jornada partida</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>101</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>119850</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>100265</v>
+      </c>
+      <c r="F23" s="5" t="n">
+        <v>140924</v>
+      </c>
+      <c r="G23" s="6" t="n">
+        <v>0.2514814840570682</v>
+      </c>
+      <c r="H23" s="6" t="n">
+        <v>0.2103855849455569</v>
+      </c>
+      <c r="I23" s="6" t="n">
+        <v>0.2957022502178265</v>
+      </c>
+      <c r="J23" s="5" t="n">
+        <v>116</v>
+      </c>
+      <c r="K23" s="5" t="n">
+        <v>87559</v>
+      </c>
+      <c r="L23" s="5" t="n">
+        <v>74121</v>
+      </c>
+      <c r="M23" s="5" t="n">
+        <v>104353</v>
+      </c>
+      <c r="N23" s="6" t="n">
+        <v>0.1829814546449545</v>
+      </c>
+      <c r="O23" s="6" t="n">
+        <v>0.1548977218506849</v>
+      </c>
+      <c r="P23" s="6" t="n">
+        <v>0.2180773222738051</v>
+      </c>
+      <c r="Q23" s="5" t="n">
+        <v>217</v>
+      </c>
+      <c r="R23" s="5" t="n">
+        <v>207409</v>
+      </c>
+      <c r="S23" s="5" t="n">
+        <v>182025</v>
+      </c>
+      <c r="T23" s="5" t="n">
+        <v>235257</v>
+      </c>
+      <c r="U23" s="6" t="n">
+        <v>0.2171618802589838</v>
+      </c>
+      <c r="V23" s="6" t="n">
+        <v>0.1905844494088216</v>
+      </c>
+      <c r="W23" s="6" t="n">
+        <v>0.2463189019674168</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>418</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>476575</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>476575</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>476575</v>
+      </c>
+      <c r="G24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>644</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>478515</v>
+      </c>
+      <c r="L24" s="5" t="n">
+        <v>478515</v>
+      </c>
+      <c r="M24" s="5" t="n">
+        <v>478515</v>
+      </c>
+      <c r="N24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="5" t="n">
+        <v>1062</v>
+      </c>
+      <c r="R24" s="5" t="n">
+        <v>955090</v>
+      </c>
+      <c r="S24" s="5" t="n">
+        <v>955090</v>
+      </c>
+      <c r="T24" s="5" t="n">
+        <v>955090</v>
+      </c>
+      <c r="U24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="W24" s="6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Otra posibilidad</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="n">
+        <v>116</v>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>132955</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>109775</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>158358</v>
+      </c>
+      <c r="G25" s="6" t="n">
+        <v>0.07017987848393636</v>
+      </c>
+      <c r="H25" s="6" t="n">
+        <v>0.05794429984832218</v>
+      </c>
+      <c r="I25" s="6" t="n">
+        <v>0.08358866912967884</v>
+      </c>
+      <c r="J25" s="5" t="n">
+        <v>172</v>
+      </c>
+      <c r="K25" s="5" t="n">
+        <v>134983</v>
+      </c>
+      <c r="L25" s="5" t="n">
+        <v>115740</v>
+      </c>
+      <c r="M25" s="5" t="n">
+        <v>155572</v>
+      </c>
+      <c r="N25" s="6" t="n">
+        <v>0.09031966269552169</v>
+      </c>
+      <c r="O25" s="6" t="n">
+        <v>0.07744417309365834</v>
+      </c>
+      <c r="P25" s="6" t="n">
+        <v>0.1040959237914956</v>
+      </c>
+      <c r="Q25" s="5" t="n">
+        <v>288</v>
+      </c>
+      <c r="R25" s="5" t="n">
+        <v>267938</v>
+      </c>
+      <c r="S25" s="5" t="n">
+        <v>237946</v>
+      </c>
+      <c r="T25" s="5" t="n">
+        <v>301186</v>
+      </c>
+      <c r="U25" s="6" t="n">
+        <v>0.07906127350633335</v>
+      </c>
+      <c r="V25" s="6" t="n">
+        <v>0.07021144523883019</v>
+      </c>
+      <c r="W25" s="6" t="n">
+        <v>0.08887181222160923</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>Turnos</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="n">
+        <v>290</v>
+      </c>
+      <c r="D26" s="5" t="n">
+        <v>348356</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>311507</v>
+      </c>
+      <c r="F26" s="5" t="n">
+        <v>387431</v>
+      </c>
+      <c r="G26" s="6" t="n">
+        <v>0.1838787557292073</v>
+      </c>
+      <c r="H26" s="6" t="n">
+        <v>0.1644282603262709</v>
+      </c>
+      <c r="I26" s="6" t="n">
+        <v>0.2045046563964191</v>
+      </c>
+      <c r="J26" s="5" t="n">
+        <v>387</v>
+      </c>
+      <c r="K26" s="5" t="n">
+        <v>297731</v>
+      </c>
+      <c r="L26" s="5" t="n">
+        <v>270206</v>
+      </c>
+      <c r="M26" s="5" t="n">
+        <v>323857</v>
+      </c>
+      <c r="N26" s="6" t="n">
+        <v>0.1992174468934239</v>
+      </c>
+      <c r="O26" s="6" t="n">
+        <v>0.1807999643736945</v>
+      </c>
+      <c r="P26" s="6" t="n">
+        <v>0.2166992156979421</v>
+      </c>
+      <c r="Q26" s="5" t="n">
+        <v>677</v>
+      </c>
+      <c r="R26" s="5" t="n">
+        <v>646087</v>
+      </c>
+      <c r="S26" s="5" t="n">
+        <v>598444</v>
+      </c>
+      <c r="T26" s="5" t="n">
+        <v>697704</v>
+      </c>
+      <c r="U26" s="6" t="n">
+        <v>0.1906429282707181</v>
+      </c>
+      <c r="V26" s="6" t="n">
+        <v>0.1765849729385773</v>
+      </c>
+      <c r="W26" s="6" t="n">
+        <v>0.205873985269038</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>Jornada continua nocturna</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D27" s="5" t="n">
+        <v>25973</v>
+      </c>
+      <c r="E27" s="5" t="n">
+        <v>16643</v>
+      </c>
+      <c r="F27" s="5" t="n">
+        <v>38388</v>
+      </c>
+      <c r="G27" s="6" t="n">
+        <v>0.01370973875448199</v>
+      </c>
+      <c r="H27" s="6" t="n">
+        <v>0.008785134934149131</v>
+      </c>
+      <c r="I27" s="6" t="n">
+        <v>0.02026290831142977</v>
+      </c>
+      <c r="J27" s="5" t="n">
+        <v>8</v>
+      </c>
+      <c r="K27" s="5" t="n">
+        <v>7936</v>
+      </c>
+      <c r="L27" s="5" t="n">
+        <v>3368</v>
+      </c>
+      <c r="M27" s="5" t="n">
+        <v>16105</v>
+      </c>
+      <c r="N27" s="6" t="n">
+        <v>0.00531046147071975</v>
+      </c>
+      <c r="O27" s="6" t="n">
+        <v>0.002253608426877138</v>
+      </c>
+      <c r="P27" s="6" t="n">
+        <v>0.01077640210372496</v>
+      </c>
+      <c r="Q27" s="5" t="n">
+        <v>32</v>
+      </c>
+      <c r="R27" s="5" t="n">
+        <v>33909</v>
+      </c>
+      <c r="S27" s="5" t="n">
+        <v>23267</v>
+      </c>
+      <c r="T27" s="5" t="n">
+        <v>49389</v>
+      </c>
+      <c r="U27" s="6" t="n">
+        <v>0.01000576165740732</v>
+      </c>
+      <c r="V27" s="6" t="n">
+        <v>0.006865458416327566</v>
+      </c>
+      <c r="W27" s="6" t="n">
+        <v>0.01457332453307962</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Jornada continua de tarde</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>31590</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>20566</v>
+      </c>
+      <c r="F28" s="5" t="n">
+        <v>45146</v>
+      </c>
+      <c r="G28" s="6" t="n">
+        <v>0.01667493526552567</v>
+      </c>
+      <c r="H28" s="6" t="n">
+        <v>0.01085561207159859</v>
+      </c>
+      <c r="I28" s="6" t="n">
+        <v>0.02383009291128829</v>
+      </c>
+      <c r="J28" s="5" t="n">
+        <v>73</v>
+      </c>
+      <c r="K28" s="5" t="n">
+        <v>63249</v>
+      </c>
+      <c r="L28" s="5" t="n">
+        <v>48634</v>
+      </c>
+      <c r="M28" s="5" t="n">
+        <v>82742</v>
+      </c>
+      <c r="N28" s="6" t="n">
+        <v>0.04232138989444763</v>
+      </c>
+      <c r="O28" s="6" t="n">
+        <v>0.03254199152023123</v>
+      </c>
+      <c r="P28" s="6" t="n">
+        <v>0.05536410572964178</v>
+      </c>
+      <c r="Q28" s="5" t="n">
+        <v>98</v>
+      </c>
+      <c r="R28" s="5" t="n">
+        <v>94840</v>
+      </c>
+      <c r="S28" s="5" t="n">
+        <v>77018</v>
+      </c>
+      <c r="T28" s="5" t="n">
+        <v>120239</v>
+      </c>
+      <c r="U28" s="6" t="n">
+        <v>0.02798470363694697</v>
+      </c>
+      <c r="V28" s="6" t="n">
+        <v>0.0227259645235564</v>
+      </c>
+      <c r="W28" s="6" t="n">
+        <v>0.03547945401667075</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>Jornada continua de mañana</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>698</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>808638</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>759723</v>
+      </c>
+      <c r="F29" s="5" t="n">
+        <v>855738</v>
+      </c>
+      <c r="G29" s="6" t="n">
+        <v>0.4268377459237487</v>
+      </c>
+      <c r="H29" s="6" t="n">
+        <v>0.4010182065331766</v>
+      </c>
+      <c r="I29" s="6" t="n">
+        <v>0.4516992462792664</v>
+      </c>
+      <c r="J29" s="5" t="n">
+        <v>924</v>
+      </c>
+      <c r="K29" s="5" t="n">
+        <v>663980</v>
+      </c>
+      <c r="L29" s="5" t="n">
+        <v>630474</v>
+      </c>
+      <c r="M29" s="5" t="n">
+        <v>701600</v>
+      </c>
+      <c r="N29" s="6" t="n">
+        <v>0.4442820877153919</v>
+      </c>
+      <c r="O29" s="6" t="n">
+        <v>0.4218623962166019</v>
+      </c>
+      <c r="P29" s="6" t="n">
+        <v>0.4694537417122423</v>
+      </c>
+      <c r="Q29" s="5" t="n">
+        <v>1622</v>
+      </c>
+      <c r="R29" s="5" t="n">
+        <v>1472619</v>
+      </c>
+      <c r="S29" s="5" t="n">
+        <v>1415895</v>
+      </c>
+      <c r="T29" s="5" t="n">
+        <v>1532119</v>
+      </c>
+      <c r="U29" s="6" t="n">
+        <v>0.4345304842733566</v>
+      </c>
+      <c r="V29" s="6" t="n">
+        <v>0.4177929072250638</v>
+      </c>
+      <c r="W29" s="6" t="n">
+        <v>0.4520874761901417</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Jornada partida</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>479</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>546974</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>502180</v>
+      </c>
+      <c r="F30" s="5" t="n">
+        <v>587703</v>
+      </c>
+      <c r="G30" s="6" t="n">
+        <v>0.2887189458431</v>
+      </c>
+      <c r="H30" s="6" t="n">
+        <v>0.2650746902640983</v>
+      </c>
+      <c r="I30" s="6" t="n">
+        <v>0.3102175960292715</v>
+      </c>
+      <c r="J30" s="5" t="n">
+        <v>435</v>
+      </c>
+      <c r="K30" s="5" t="n">
+        <v>326622</v>
+      </c>
+      <c r="L30" s="5" t="n">
+        <v>296719</v>
+      </c>
+      <c r="M30" s="5" t="n">
+        <v>352883</v>
+      </c>
+      <c r="N30" s="6" t="n">
+        <v>0.2185489513304951</v>
+      </c>
+      <c r="O30" s="6" t="n">
+        <v>0.1985406259636068</v>
+      </c>
+      <c r="P30" s="6" t="n">
+        <v>0.2361210518707609</v>
+      </c>
+      <c r="Q30" s="5" t="n">
+        <v>914</v>
+      </c>
+      <c r="R30" s="5" t="n">
+        <v>873596</v>
+      </c>
+      <c r="S30" s="5" t="n">
+        <v>823605</v>
+      </c>
+      <c r="T30" s="5" t="n">
+        <v>925436</v>
+      </c>
+      <c r="U30" s="6" t="n">
+        <v>0.2577748486552376</v>
+      </c>
+      <c r="V30" s="6" t="n">
+        <v>0.2430239240206288</v>
+      </c>
+      <c r="W30" s="6" t="n">
+        <v>0.2730715308666948</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C31" s="5" t="n">
+        <v>1632</v>
+      </c>
+      <c r="D31" s="5" t="n">
+        <v>1894486</v>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>1894486</v>
+      </c>
+      <c r="F31" s="5" t="n">
+        <v>1894486</v>
+      </c>
+      <c r="G31" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="5" t="n">
+        <v>1999</v>
+      </c>
+      <c r="K31" s="5" t="n">
+        <v>1494502</v>
+      </c>
+      <c r="L31" s="5" t="n">
+        <v>1494502</v>
+      </c>
+      <c r="M31" s="5" t="n">
+        <v>1494502</v>
+      </c>
+      <c r="N31" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O31" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" s="5" t="n">
+        <v>3631</v>
+      </c>
+      <c r="R31" s="5" t="n">
+        <v>3388988</v>
+      </c>
+      <c r="S31" s="5" t="n">
+        <v>3388988</v>
+      </c>
+      <c r="T31" s="5" t="n">
+        <v>3388988</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>1</v>
